--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT Delhi\Semester 8\SIL765\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BE79AA-ECA2-41FD-8472-03A72D849D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67EEF0F-BEC1-49B6-8C96-7DC3E4400EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5842FFB-7114-4CD6-B26A-EDF3019A1706}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Algorithm</t>
   </si>
@@ -101,11 +101,41 @@
   <si>
     <t>704, 705, 706</t>
   </si>
+  <si>
+    <t>AES-128-CBC</t>
+  </si>
+  <si>
+    <t>AES-128-CTR</t>
+  </si>
+  <si>
+    <t>RSA-2048</t>
+  </si>
+  <si>
+    <t>AES-128-CMAC</t>
+  </si>
+  <si>
+    <t>SHA3-256-HMAC</t>
+  </si>
+  <si>
+    <t>RSA-2048-SHA3-256-SIG</t>
+  </si>
+  <si>
+    <t>ECDSA-256-SHA3-256-SIG</t>
+  </si>
+  <si>
+    <t>AES-128-GCM</t>
+  </si>
+  <si>
+    <t>Packet Length (bits)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,15 +161,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,6 +209,2798 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Key Length (bits)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>AES-128-CBC-ENC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AES-128-CBC-DEC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AES-128-CTR-ENC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AES-128-CTR-DEC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RSA-2048-ENC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RSA-2048-DEC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AES-128-CMAC-GEN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AES-128-CMAC-VRF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SHA3-256-HMAC-GEN</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SHA3-256-HMAC-VRF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RSA-2048-SHA3-256-SIG-GEN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RSA-2048-SHA3-256-SIG-VRF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ECDSA-256-SHA3-256-SIG-GEN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ECDSA-256-SHA3-256-SIG-VRF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AES-128-GCM-GEN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AES-128-GCM-VRF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3608</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3CA-4F68-86B8-78B1E605B352}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1278198368"/>
+        <c:axId val="1278201280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1278198368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278201280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1278201280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278198368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>AES-128-CBC-ENC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AES-128-CBC-DEC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AES-128-CTR-ENC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AES-128-CTR-DEC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RSA-2048-ENC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RSA-2048-DEC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AES-128-CMAC-GEN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AES-128-CMAC-VRF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SHA3-256-HMAC-GEN</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SHA3-256-HMAC-VRF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RSA-2048-SHA3-256-SIG-GEN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RSA-2048-SHA3-256-SIG-VRF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ECDSA-256-SHA3-256-SIG-GEN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ECDSA-256-SHA3-256-SIG-VRF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AES-128-GCM-GEN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AES-128-GCM-VRF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.1539154052734306E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9656956990559898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5260798136393206E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3378601074218701E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.103394190470377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.37060292561848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1750411987304597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0835469563801999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6491622924804597E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2172927856445299E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4616788228352799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9341074625651005E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.136216481526692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11301040649414</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7352244059244699E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2411346435546799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAD5-48D7-B9A2-0F1F14DBF019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1457437328"/>
+        <c:axId val="1457439408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1457437328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457439408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1457439408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457437328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Packet Length (bits)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$2:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>AES-128-CBC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AES-128-CTR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSA-2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AES-128-CMAC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SHA3-256-HMAC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RSA-2048-SHA3-256-SIG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ECDSA-256-SHA3-256-SIG</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AES-128-GCM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AF3-4A1A-A923-7FEE73BD1724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1072398383"/>
+        <c:axId val="1072394639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1072398383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1072394639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1072394639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1072398383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>870256</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313996</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED8EC91-6244-4940-9850-774D44B12FD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4AC7C3-1800-4E79-9B67-CDE7113CBD02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127462</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>693419</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>69966</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF95DAD8-70AA-45E0-A4D1-D0EBB6E6D1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C516491-A5C2-4096-BDE7-A25130130548}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,87 +3313,185 @@
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="C2">
-        <v>0.15079999999999999</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="4">
+        <v>8.1539154052734306E-2</v>
+      </c>
+      <c r="D2" s="5">
         <v>640</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4">
+        <f>D2*8</f>
+        <v>5120</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="C3">
-        <v>8.43E-2</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="O2" s="6">
+        <v>8.1539154052734306E-2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>5120</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <f>16*8</f>
+        <v>128</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.9656956990559898E-2</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4">
+        <f>D4*8</f>
+        <v>5072</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4">
+        <f>16*8</f>
+        <v>128</v>
+      </c>
+      <c r="O3" s="6">
+        <v>3.9656956990559898E-2</v>
+      </c>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>128</v>
       </c>
-      <c r="C4">
-        <v>0.108</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="4">
+        <v>7.5260798136393206E-2</v>
+      </c>
+      <c r="D4" s="5">
         <v>634</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4">
+        <f>D6*8</f>
+        <v>2048</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>128</v>
+      </c>
+      <c r="O4" s="6">
+        <v>7.5260798136393206E-2</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5072</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>128</v>
       </c>
-      <c r="C5">
-        <v>5.96E-2</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="4">
+        <v>3.3378601074218701E-2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4">
+        <f>D8*8</f>
+        <v>5200</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="4">
+        <v>128</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3.3378601074218701E-2</v>
+      </c>
+      <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>3608</v>
       </c>
-      <c r="C6">
-        <v>0.12520000000000001</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="4">
+        <v>0.103394190470377</v>
+      </c>
+      <c r="D6" s="5">
         <v>256</v>
       </c>
       <c r="E6">
@@ -556,161 +3500,400 @@
       <c r="F6">
         <v>0.26169999999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>1280</v>
       </c>
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4">
+        <f>D10*8</f>
+        <v>5328</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3608</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.103394190470377</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>13432</v>
       </c>
-      <c r="C7">
-        <v>3.1983000000000001</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="C7" s="4">
+        <v>3.37060292561848</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7">
         <v>5.0606</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="4">
+        <f>D12*8</f>
+        <v>7120</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="4">
+        <v>13432</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3.37060292561848</v>
+      </c>
+      <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>128</v>
       </c>
-      <c r="C8">
-        <v>6.54E-2</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="4">
+        <v>6.1750411987304597E-2</v>
+      </c>
+      <c r="D8" s="5">
         <v>650</v>
       </c>
+      <c r="I8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="4">
+        <f>D14*8</f>
+        <v>5648</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4">
+        <v>128</v>
+      </c>
+      <c r="O8" s="6">
+        <v>6.1750411987304597E-2</v>
+      </c>
+      <c r="P8" s="5">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>128</v>
       </c>
-      <c r="C9">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="4">
+        <v>3.0835469563801999E-2</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="I9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="4">
+        <f>D16*8</f>
+        <v>5200</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="4">
+        <v>128</v>
+      </c>
+      <c r="O9" s="6">
+        <v>3.0835469563801999E-2</v>
+      </c>
+      <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>128</v>
       </c>
-      <c r="C10">
-        <v>5.5500000000000001E-2</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="4">
+        <v>4.6491622924804597E-2</v>
+      </c>
+      <c r="D10" s="5">
         <v>666</v>
       </c>
+      <c r="M10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="4">
+        <v>128</v>
+      </c>
+      <c r="O10" s="6">
+        <v>4.6491622924804597E-2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>5328</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>128</v>
       </c>
-      <c r="C11">
-        <v>2.23E-2</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="4">
+        <v>2.2172927856445299E-2</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="I11" s="1"/>
+      <c r="M11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="4">
+        <v>128</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2.2172927856445299E-2</v>
+      </c>
+      <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>13432</v>
       </c>
-      <c r="C12">
-        <v>3.1909999999999998</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="4">
+        <v>3.4616788228352799</v>
+      </c>
+      <c r="D12" s="5">
         <v>890</v>
       </c>
+      <c r="M12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="4">
+        <v>13432</v>
+      </c>
+      <c r="O12" s="6">
+        <v>3.4616788228352799</v>
+      </c>
+      <c r="P12" s="5">
+        <v>7120</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>3608</v>
       </c>
-      <c r="C13">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="4">
+        <v>9.9341074625651005E-2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="M13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3608</v>
+      </c>
+      <c r="O13" s="6">
+        <v>9.9341074625651005E-2</v>
+      </c>
+      <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>1816</v>
       </c>
-      <c r="C14">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="4">
+        <v>0.136216481526692</v>
+      </c>
+      <c r="D14" s="5">
+        <v>706</v>
+      </c>
+      <c r="E14" t="s">
         <v>21</v>
       </c>
+      <c r="M14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1816</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.136216481526692</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5648</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>1424</v>
       </c>
-      <c r="C15">
-        <v>0.115</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="4">
+        <v>0.11301040649414</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="I15" s="1"/>
+      <c r="M15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1424</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.11301040649414</v>
+      </c>
+      <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>128</v>
       </c>
-      <c r="C16">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>666</v>
+      <c r="C16" s="4">
+        <v>3.7352244059244699E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>650</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="4">
+        <v>128</v>
+      </c>
+      <c r="O16" s="6">
+        <v>3.7352244059244699E-2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>5200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>128</v>
       </c>
-      <c r="C17">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="D17" s="1"/>
+      <c r="C17" s="4">
+        <v>2.2411346435546799E-2</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="I17" s="1"/>
+      <c r="M17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="4">
+        <v>128</v>
+      </c>
+      <c r="O17" s="6">
+        <v>2.2411346435546799E-2</v>
+      </c>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="25">
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D16:D17"/>
@@ -720,8 +3903,17 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT Delhi\Semester 8\SIL765\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67EEF0F-BEC1-49B6-8C96-7DC3E4400EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBD935-4E6F-45E5-AFB5-75711DB48B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5842FFB-7114-4CD6-B26A-EDF3019A1706}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Algorithm</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Key Length (bits)</t>
   </si>
   <si>
-    <t>13400, 13432</t>
-  </si>
-  <si>
-    <t>704, 705, 706</t>
-  </si>
-  <si>
     <t>AES-128-CBC</t>
   </si>
   <si>
@@ -128,13 +122,16 @@
   <si>
     <t>Packet Length (bits)</t>
   </si>
+  <si>
+    <t>704, 706</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -180,20 +177,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3303,7 +3301,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M1" sqref="M1:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3322,578 +3320,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>30</v>
+      <c r="P1" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>8.1539154052734306E-2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>640</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
         <f>D2*8</f>
         <v>5120</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="7">
         <v>8.1539154052734306E-2</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="3">
         <v>5120</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>3.9656956990559898E-2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="D3" s="3"/>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
         <f>D4*8</f>
         <v>5072</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <f>16*8</f>
         <v>128</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="7">
         <v>3.9656956990559898E-2</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>128</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>7.5260798136393206E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>634</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
         <f>D6*8</f>
         <v>2048</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <v>128</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="7">
         <v>7.5260798136393206E-2</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="3">
         <v>5072</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>128</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>3.3378601074218701E-2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="I5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="D5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
         <f>D8*8</f>
         <v>5200</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>128</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="7">
         <v>3.3378601074218701E-2</v>
       </c>
-      <c r="P5" s="5"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>3608</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>0.103394190470377</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>256</v>
       </c>
-      <c r="E6">
-        <v>3608</v>
-      </c>
-      <c r="F6">
-        <v>0.26169999999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1280</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="G6" s="4"/>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2">
         <f>D10*8</f>
         <v>5328</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <v>3608</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="7">
         <v>0.103394190470377</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="3">
         <v>2048</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>13432</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>3.37060292561848</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>5.0606</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="I7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="D7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2">
         <f>D12*8</f>
         <v>7120</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <v>13432</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="7">
         <v>3.37060292561848</v>
       </c>
-      <c r="P7" s="5"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>128</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>6.1750411987304597E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>650</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2">
         <f>D14*8</f>
         <v>5648</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <v>128</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="7">
         <v>6.1750411987304597E-2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>5200</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>128</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>3.0835469563801999E-2</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="D9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2">
         <f>D16*8</f>
         <v>5200</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <v>128</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="7">
         <v>3.0835469563801999E-2</v>
       </c>
-      <c r="P9" s="5"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>128</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>4.6491622924804597E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>666</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <v>128</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="7">
         <v>4.6491622924804597E-2</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="3">
         <v>5328</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>128</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>2.2172927856445299E-2</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="3"/>
       <c r="I11" s="1"/>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <v>128</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="7">
         <v>2.2172927856445299E-2</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>13432</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>3.4616788228352799</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>890</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <v>13432</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="7">
         <v>3.4616788228352799</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>7120</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>3608</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>9.9341074625651005E-2</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="3"/>
       <c r="I13" s="1"/>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <v>3608</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="7">
         <v>9.9341074625651005E-2</v>
       </c>
-      <c r="P13" s="5"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>1816</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>0.136216481526692</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>706</v>
       </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <v>1816</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="7">
         <v>0.136216481526692</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="3">
         <v>5648</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>1424</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>0.11301040649414</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <v>1424</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="7">
         <v>0.11301040649414</v>
       </c>
-      <c r="P15" s="5"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>128</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>3.7352244059244699E-2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>650</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>128</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="7">
         <v>3.7352244059244699E-2</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="3">
         <v>5200</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>128</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>2.2411346435546799E-2</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <v>128</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="7">
         <v>2.2411346435546799E-2</v>
       </c>
-      <c r="P17" s="5"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D16:D17"/>
@@ -3903,14 +3887,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
